--- a/01_Input/00_CO Validation/Kenya - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Kenya - Energy Projects.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{98A7AFD8-A93A-D34A-9879-81FC8C3B641F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAABF76D-AFBA-4973-87AB-7EEB43AECDCB}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{98A7AFD8-A93A-D34A-9879-81FC8C3B641F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A848DB70-E8C6-454C-9033-860EA24EDA5E}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="740" windowWidth="29160" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="Projects" sheetId="1" r:id="rId2"/>
-    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId3"/>
+    <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
+    <sheet name="Projects (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Projects" sheetId="1" r:id="rId3"/>
+    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -35,9 +39,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="111">
+  <si>
+    <t>Project ID</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Beneficiary Category</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Donors</t>
+  </si>
+  <si>
+    <t>Gender (% female)</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>SEH Taxonomy</t>
+  </si>
+  <si>
+    <t>RISE Taxonomy</t>
+  </si>
+  <si>
+    <t>Flagship</t>
+  </si>
+  <si>
+    <t>Indirect Category</t>
+  </si>
+  <si>
+    <t>Indirect Taxonomy</t>
+  </si>
+  <si>
+    <t>missing-KEN-1</t>
+  </si>
   <si>
     <t>JSB- ACCELERATING CLEAN COOKING ACTION IN KENYA</t>
+  </si>
+  <si>
+    <t>Clean Cooking</t>
+  </si>
+  <si>
+    <t>Number of households with access to clean cooking technologies and fuels</t>
+  </si>
+  <si>
+    <t>10000 HH</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Number of beneficiaries benefited from using energy efficient cooking</t>
+  </si>
+  <si>
+    <t>Capacity Training</t>
+  </si>
+  <si>
+    <t>Number of women and youth trained on clean cooking enterprises</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Number of counties with energy policies</t>
+  </si>
+  <si>
+    <t>Campaign Participant</t>
+  </si>
+  <si>
+    <t>Number of people reached through clean cooking awareness raising campaigns</t>
+  </si>
+  <si>
+    <t>missing-KEN-2</t>
+  </si>
+  <si>
+    <t>SOLAR POWERWED COLD STORAGE FACILITIES TO REDUCE POST HARVEST LOSSESS</t>
+  </si>
+  <si>
+    <t>Agricultural Services</t>
+  </si>
+  <si>
+    <t>Number of smallholder farmers benefiting from storage facities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MITIGATION FACILITY				</t>
+  </si>
+  <si>
+    <t>GHG Emission Reduction</t>
+  </si>
+  <si>
+    <t>CO2 emission reduction from cold storage facilities GtCO2</t>
+  </si>
+  <si>
+    <t>Tonnes of Cold Storage facilities deployed</t>
+  </si>
+  <si>
+    <t>Number of markets with cold storage facilities</t>
+  </si>
+  <si>
+    <t>Number of individuals trained in operation and maintenance of cold storage facilities</t>
+  </si>
+  <si>
+    <t>Number of policies developed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">·       </t>
   </si>
   <si>
     <t xml:space="preserve">Donor: JAPAN </t>
@@ -187,23 +317,26 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+      </rPr>
       <t>·</t>
     </r>
     <r>
       <rPr>
         <sz val="7"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve">       </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Number of people reached through clean cooking awareness raising campaigns</t>
@@ -223,9 +356,6 @@
   </si>
   <si>
     <t>IMPLEMENTED BY UNDP/UNCDF</t>
-  </si>
-  <si>
-    <t>Number of smallholder farmers benefiting from storage facities</t>
   </si>
   <si>
     <t>Productive use of energy for agriculture</t>
@@ -258,6 +388,75 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3,099,660tCO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <t>Lifetime emission reduction for the facilities</t>
+  </si>
+  <si>
+    <t>Market Development – support to small and medium  enterprises in the energy market</t>
+  </si>
+  <si>
+    <t>Productive use of energy</t>
+  </si>
+  <si>
+    <t>Individuals who participate in training</t>
+  </si>
+  <si>
+    <t>Standards developed for the sector</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Number of people reached through clean cooking awareness raising campaigns</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>3,099,660tCO</t>
     </r>
     <r>
@@ -283,39 +482,9 @@
     </r>
   </si>
   <si>
-    <t>Lifetime emission reduction for the facilities</t>
-  </si>
-  <si>
-    <t>Tonnes of Cold Storage facilities deployed</t>
-  </si>
-  <si>
-    <t>Market Development – support to small and medium  enterprises in the energy market</t>
-  </si>
-  <si>
-    <t>Number of markets with cold storage facilities</t>
-  </si>
-  <si>
-    <t>Productive use of energy</t>
-  </si>
-  <si>
-    <t>Number of individuals trained in operation and maintenance of cold storage facilities</t>
-  </si>
-  <si>
-    <t>Individuals who participate in training</t>
-  </si>
-  <si>
-    <t>Number of policies developed</t>
-  </si>
-  <si>
-    <t>Standards developed for the sector</t>
-  </si>
-  <si>
     <t>Tier</t>
   </si>
   <si>
-    <t>Beneficiary Category</t>
-  </si>
-  <si>
     <t>Explanation</t>
   </si>
   <si>
@@ -334,18 +503,12 @@
     <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
   </si>
   <si>
-    <t>Clean Cooking</t>
-  </si>
-  <si>
     <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
   </si>
   <si>
     <t>Productive Use of Energy</t>
   </si>
   <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
     <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
   </si>
   <si>
@@ -391,9 +554,6 @@
     <t>Capacity Building</t>
   </si>
   <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
     <t>Individuals who participate in trainings for energy activities</t>
   </si>
   <si>
@@ -403,16 +563,10 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
-    <t>Campaign Participant</t>
-  </si>
-  <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
     <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
   </si>
   <si>
     <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
@@ -428,7 +582,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,8 +655,57 @@
       <name val="Symbol"/>
       <charset val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,8 +760,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -726,11 +935,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -795,6 +1042,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -825,21 +1131,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
     </xf>
@@ -849,9 +1149,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -865,7 +1162,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1167,11 +1465,415 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1495D4-B028-4763-B195-010A1D63E803}">
+  <dimension ref="A1:R13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="45.75">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="106.5">
+      <c r="A2" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="28">
+        <v>1327000</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="30">
+        <v>0</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+    </row>
+    <row r="3" spans="1:18" ht="60.75">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="32">
+        <v>1500</v>
+      </c>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+    </row>
+    <row r="4" spans="1:18" ht="60.75">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30">
+        <v>500</v>
+      </c>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+    </row>
+    <row r="5" spans="1:18" ht="45.75">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="30">
+        <v>18</v>
+      </c>
+      <c r="H5" s="30">
+        <v>3</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+    </row>
+    <row r="6" spans="1:18" ht="60.75">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="32">
+        <v>5000000</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+    </row>
+    <row r="7" spans="1:18" ht="167.25">
+      <c r="A7" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="39">
+        <v>24710000</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30">
+        <v>10000</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+    </row>
+    <row r="8" spans="1:18" ht="60.75">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <v>3099.66</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:18" ht="30.75">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36">
+        <v>3900</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" ht="45.75">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36">
+        <v>33</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:18" ht="60.75">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <v>200</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:18" ht="45.75">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <v>3</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" customHeight="1">
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R12" xr:uid="{089AD205-48EB-469D-82EB-DE69EC9A2D8D}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q12" xr:uid="{44FA2649-C4F9-4A7D-AAF8-F950792400AA}">
+      <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P12" xr:uid="{825F8FFF-C9FA-40C6-A453-619844F79483}">
+      <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O12" xr:uid="{6505345E-2AA0-4959-9B08-D91EF543EC5F}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N12" xr:uid="{53624307-5C7A-4C02-92D0-A96A5BA83B50}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{88BB22EA-AE3E-46BB-9771-1F3C4836B939}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1C09B8-6931-4249-A1F1-E52A4EEC1FD0}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1188,65 +1890,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.95" customHeight="1">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="A1" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="8"/>
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
       <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="46.5" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
+      <c r="A2" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" ht="41.25" customHeight="1">
-      <c r="A3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
+      <c r="A3" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="46.5" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
+      <c r="A4" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" ht="46.5" customHeight="1">
-      <c r="A5" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
+      <c r="A5" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="9"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -1254,19 +1956,19 @@
     </row>
     <row r="6" spans="1:9" ht="58.5" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
@@ -1274,240 +1976,240 @@
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" ht="87" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="30">
+      <c r="A7" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="51">
         <v>0</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="54">
         <v>10000</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="30"/>
+        <v>53</v>
+      </c>
+      <c r="E7" s="51"/>
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="38"/>
+        <v>54</v>
+      </c>
+      <c r="E8" s="57"/>
       <c r="F8" s="9"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="38"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="38"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="29"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="33"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="31"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="72.95" customHeight="1">
-      <c r="A12" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="30">
+      <c r="A12" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="51">
         <v>0</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>15</v>
+        <v>56</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="14">
         <v>5</v>
       </c>
       <c r="D13" s="16">
         <v>1500</v>
       </c>
-      <c r="E13" s="38"/>
+      <c r="E13" s="57"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="17"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="38"/>
+      <c r="E14" s="57"/>
     </row>
     <row r="15" spans="1:9" ht="15.95" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="18"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="31"/>
+      <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:9" ht="117.95" customHeight="1">
-      <c r="A16" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="30">
+      <c r="A16" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="51">
         <v>0</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="51">
         <v>500</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="30"/>
+        <v>59</v>
+      </c>
+      <c r="E16" s="51"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="29"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="15">
         <v>500</v>
       </c>
-      <c r="E17" s="31"/>
+      <c r="E17" s="52"/>
     </row>
     <row r="18" spans="1:5" ht="72.95" customHeight="1">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="51">
         <v>18</v>
       </c>
-      <c r="B18" s="30">
-        <v>18</v>
-      </c>
-      <c r="C18" s="30">
+      <c r="C18" s="51">
         <v>3</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>20</v>
+        <v>61</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="29"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="19">
         <v>9000000</v>
       </c>
-      <c r="E19" s="31"/>
+      <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:5" ht="132.94999999999999" customHeight="1">
-      <c r="A20" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="30">
+      <c r="A20" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="51">
         <v>0</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="54">
         <v>5000000</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="54">
         <v>5000000</v>
       </c>
-      <c r="E20" s="30" t="s">
-        <v>22</v>
+      <c r="E20" s="51" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="29"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="31"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="52"/>
     </row>
     <row r="22" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A22" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
+      <c r="A22" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
     </row>
     <row r="23" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A23" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
+      <c r="A23" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45"/>
     </row>
     <row r="24" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A24" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
+      <c r="A24" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
     </row>
     <row r="25" spans="1:5" ht="15.75">
-      <c r="A25" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
+      <c r="A25" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="20" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30.75">
       <c r="A27" s="21" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B27" s="15">
         <v>0</v>
@@ -1516,28 +2218,28 @@
         <v>10000</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:5" ht="45.75">
       <c r="A28" s="21" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="B28" s="15">
         <v>0</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>30</v>
+      <c r="C28" s="35" t="s">
+        <v>71</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="45.75">
       <c r="A29" s="21" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B29" s="15">
         <v>0</v>
@@ -1546,13 +2248,13 @@
         <v>3900</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E29" s="15"/>
     </row>
     <row r="30" spans="1:5" ht="30.75">
       <c r="A30" s="21" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30" s="15">
         <v>0</v>
@@ -1561,13 +2263,13 @@
         <v>33</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="E30" s="15"/>
     </row>
     <row r="31" spans="1:5" ht="45.75">
       <c r="A31" s="21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B31" s="15">
         <v>0</v>
@@ -1576,13 +2278,13 @@
         <v>200</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E31" s="15"/>
     </row>
     <row r="32" spans="1:5" ht="30.75">
       <c r="A32" s="21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B32" s="15">
         <v>0</v>
@@ -1591,472 +2293,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="E7:E11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="32.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.95" customHeight="1">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" ht="46.5" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" ht="41.25" customHeight="1">
-      <c r="A3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" ht="46.5" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A5" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" ht="87" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="30">
-        <v>0</v>
-      </c>
-      <c r="C7" s="32">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.95">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="29"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" ht="72.95" customHeight="1">
-      <c r="A12" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="30">
-        <v>0</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="14">
-        <v>5</v>
-      </c>
-      <c r="D13" s="16">
-        <v>1500</v>
-      </c>
-      <c r="E13" s="38"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="38"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.95" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="31"/>
-    </row>
-    <row r="16" spans="1:9" ht="117.95" customHeight="1">
-      <c r="A16" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="30">
-        <v>0</v>
-      </c>
-      <c r="C16" s="30">
-        <v>500</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="30"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.95" thickBot="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="15">
-        <v>500</v>
-      </c>
-      <c r="E17" s="31"/>
-    </row>
-    <row r="18" spans="1:5" ht="72.95" customHeight="1">
-      <c r="A18" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="30">
-        <v>18</v>
-      </c>
-      <c r="C18" s="30">
-        <v>3</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.95" thickBot="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="19">
-        <v>9000000</v>
-      </c>
-      <c r="E19" s="31"/>
-    </row>
-    <row r="20" spans="1:5" ht="132.94999999999999" customHeight="1">
-      <c r="A20" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="30">
-        <v>0</v>
-      </c>
-      <c r="C20" s="32">
-        <v>5000000</v>
-      </c>
-      <c r="D20" s="32">
-        <v>5000000</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.95" thickBot="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="31"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A22" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A23" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A24" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-    </row>
-    <row r="25" spans="1:5" ht="17.100000000000001" thickBot="1">
-      <c r="A25" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" spans="1:5" ht="33" thickBot="1">
-      <c r="A26" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="129" thickBot="1">
-      <c r="A27" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="15">
-        <v>0</v>
-      </c>
-      <c r="C27" s="19">
-        <v>10000</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="1:5" ht="99" thickBot="1">
-      <c r="A28" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="15">
-        <v>0</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="81" thickBot="1">
-      <c r="A29" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="15">
-        <v>0</v>
-      </c>
-      <c r="C29" s="19">
-        <v>3900</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="1:5" ht="96.95" thickBot="1">
-      <c r="A30" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="15">
-        <v>0</v>
-      </c>
-      <c r="C30" s="15">
-        <v>33</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="1:5" ht="192.95" thickBot="1">
-      <c r="A31" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="15">
-        <v>0</v>
-      </c>
-      <c r="C31" s="15">
-        <v>200</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="1:5" ht="65.099999999999994" thickBot="1">
-      <c r="A32" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="15">
-        <v>0</v>
-      </c>
-      <c r="C32" s="15">
-        <v>3</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E32" s="15"/>
     </row>
@@ -2097,6 +2334,471 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A1" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="46.5" customHeight="1">
+      <c r="A2" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" ht="41.25" customHeight="1">
+      <c r="A3" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" ht="46.5" customHeight="1">
+      <c r="A4" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" ht="46.5" customHeight="1" thickBot="1">
+      <c r="A5" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" ht="58.5" customHeight="1" thickBot="1">
+      <c r="A6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" ht="87" customHeight="1">
+      <c r="A7" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="51">
+        <v>0</v>
+      </c>
+      <c r="C7" s="54">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="51"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.95">
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="57"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="50"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" ht="72.95" customHeight="1">
+      <c r="A12" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="51">
+        <v>0</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="14">
+        <v>5</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1500</v>
+      </c>
+      <c r="E13" s="57"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="57"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A15" s="50"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="52"/>
+    </row>
+    <row r="16" spans="1:9" ht="117.95" customHeight="1">
+      <c r="A16" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="51">
+        <v>0</v>
+      </c>
+      <c r="C16" s="51">
+        <v>500</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="51"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.95" thickBot="1">
+      <c r="A17" s="50"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="15">
+        <v>500</v>
+      </c>
+      <c r="E17" s="52"/>
+    </row>
+    <row r="18" spans="1:5" ht="72.95" customHeight="1">
+      <c r="A18" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="51">
+        <v>18</v>
+      </c>
+      <c r="C18" s="51">
+        <v>3</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.95" thickBot="1">
+      <c r="A19" s="50"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="19">
+        <v>9000000</v>
+      </c>
+      <c r="E19" s="52"/>
+    </row>
+    <row r="20" spans="1:5" ht="132.94999999999999" customHeight="1">
+      <c r="A20" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="51">
+        <v>0</v>
+      </c>
+      <c r="C20" s="54">
+        <v>5000000</v>
+      </c>
+      <c r="D20" s="54">
+        <v>5000000</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.95" thickBot="1">
+      <c r="A21" s="50"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="52"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A22" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A23" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A24" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
+    </row>
+    <row r="25" spans="1:5" ht="17.100000000000001" thickBot="1">
+      <c r="A25" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+    </row>
+    <row r="26" spans="1:5" ht="33" thickBot="1">
+      <c r="A26" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="129" thickBot="1">
+      <c r="A27" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="15">
+        <v>0</v>
+      </c>
+      <c r="C27" s="19">
+        <v>10000</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" ht="99" thickBot="1">
+      <c r="A28" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="15">
+        <v>0</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="81" thickBot="1">
+      <c r="A29" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="15">
+        <v>0</v>
+      </c>
+      <c r="C29" s="19">
+        <v>3900</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:5" ht="96.95" thickBot="1">
+      <c r="A30" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="15">
+        <v>0</v>
+      </c>
+      <c r="C30" s="15">
+        <v>33</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5" ht="192.95" thickBot="1">
+      <c r="A31" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="15">
+        <v>0</v>
+      </c>
+      <c r="C31" s="15">
+        <v>200</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:5" ht="65.099999999999994" thickBot="1">
+      <c r="A32" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="15">
+        <v>0</v>
+      </c>
+      <c r="C32" s="15">
+        <v>3</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -2111,160 +2813,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="41" t="s">
-        <v>43</v>
+      <c r="A2" s="59" t="s">
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="41"/>
+      <c r="A3" s="59"/>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="41"/>
+      <c r="A4" s="59"/>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="42" t="s">
-        <v>50</v>
+      <c r="A5" s="60" t="s">
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="42"/>
+      <c r="A6" s="60"/>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="42"/>
+      <c r="A7" s="60"/>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="42"/>
+      <c r="A8" s="60"/>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="42"/>
+      <c r="A9" s="60"/>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="43" t="s">
-        <v>61</v>
+      <c r="A10" s="61" t="s">
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="61"/>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="44" t="s">
-        <v>66</v>
+      <c r="A12" s="62" t="s">
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="44"/>
+      <c r="A13" s="62"/>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="44"/>
+      <c r="A14" s="62"/>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2279,26 +2981,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2547,8 +3229,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6053E160-FFD8-46AC-B61C-9D28EBC72471}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{832529A9-6D1D-4F17-8F75-768844DC7245}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2556,5 +3258,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{832529A9-6D1D-4F17-8F75-768844DC7245}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6053E160-FFD8-46AC-B61C-9D28EBC72471}"/>
 </file>
--- a/01_Input/00_CO Validation/Kenya - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Kenya - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="8_{98A7AFD8-A93A-D34A-9879-81FC8C3B641F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A848DB70-E8C6-454C-9033-860EA24EDA5E}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="8_{98A7AFD8-A93A-D34A-9879-81FC8C3B641F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{182F57EF-C12A-45A3-956D-26FF56B120BB}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="740" windowWidth="29160" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="128">
   <si>
     <t>Project ID</t>
   </si>
@@ -74,7 +74,7 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
+    <t>VF or Non-VF</t>
   </si>
   <si>
     <t>Tag</t>
@@ -95,6 +95,15 @@
     <t>Indirect Taxonomy</t>
   </si>
   <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
+  </si>
+  <si>
     <t>missing-KEN-1</t>
   </si>
   <si>
@@ -113,21 +122,36 @@
     <t>Japan</t>
   </si>
   <si>
+    <t>Non-VF</t>
+  </si>
+  <si>
+    <t>Close the gap on energy access</t>
+  </si>
+  <si>
     <t>Number of beneficiaries benefited from using energy efficient cooking</t>
   </si>
   <si>
-    <t>Capacity Training</t>
+    <t>Capacity Building Training</t>
   </si>
   <si>
     <t>Number of women and youth trained on clean cooking enterprises</t>
   </si>
   <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
     <t>Number of counties with energy policies</t>
   </si>
   <si>
+    <t>Incentives and Support</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>No prodoc</t>
+  </si>
+  <si>
+    <t>Tier 1</t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
@@ -140,7 +164,7 @@
     <t>SOLAR POWERWED COLD STORAGE FACILITIES TO REDUCE POST HARVEST LOSSESS</t>
   </si>
   <si>
-    <t>Agricultural Services</t>
+    <t>Agriculture and Food System</t>
   </si>
   <si>
     <t>Number of smallholder farmers benefiting from storage facities</t>
@@ -152,7 +176,7 @@
     <t>GHG Emission Reduction</t>
   </si>
   <si>
-    <t>CO2 emission reduction from cold storage facilities GtCO2</t>
+    <t>CO2 emission reduction from cold storage facilities tCO2</t>
   </si>
   <si>
     <t>Tonnes of Cold Storage facilities deployed</t>
@@ -165,6 +189,18 @@
   </si>
   <si>
     <t>Number of policies developed</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Legal Framework</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>Tier 2</t>
   </si>
   <si>
     <t xml:space="preserve">·       </t>
@@ -482,52 +518,64 @@
     </r>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
     <t>Electricity Access</t>
   </si>
   <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
   </si>
   <si>
     <t>Energy (MW added)</t>
   </si>
   <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
-  </si>
-  <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
+    <t>Number of MW installed capacity</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
   </si>
   <si>
     <t>Health Services</t>
   </si>
   <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
   </si>
   <si>
     <t>Water Services</t>
   </si>
   <si>
-    <t>Access to solar water pumps</t>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
   </si>
   <si>
     <t>Education Services</t>
   </si>
   <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Other Energy Services</t>
@@ -536,7 +584,10 @@
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -551,10 +602,7 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -563,13 +611,16 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Other</t>
@@ -582,12 +633,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -704,49 +761,20 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -773,21 +801,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -972,194 +985,211 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1466,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1495D4-B028-4763-B195-010A1D63E803}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1477,394 +1507,547 @@
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="45.75">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:24" ht="45.75">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="38" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="106.5">
-      <c r="A2" s="28" t="s">
+      <c r="S1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="T1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="28">
+      <c r="U1" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="106.5">
+      <c r="A2" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="23">
         <v>1327000</v>
       </c>
-      <c r="E2" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="30">
+      <c r="E2" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="25">
         <v>0</v>
       </c>
-      <c r="H2" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="34" t="s">
+      <c r="H2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="25"/>
+      <c r="L2" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="42"/>
+      <c r="X2" s="7"/>
+    </row>
+    <row r="3" spans="1:24" ht="60.75">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-    </row>
-    <row r="3" spans="1:18" ht="60.75">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="32">
+      <c r="F3" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26">
         <v>1500</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-    </row>
-    <row r="4" spans="1:18" ht="60.75">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="42"/>
+      <c r="X3" s="7"/>
+    </row>
+    <row r="4" spans="1:24" ht="60.75">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25">
         <v>500</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-    </row>
-    <row r="5" spans="1:18" ht="45.75">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="37" t="s">
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="M4" s="7"/>
+      <c r="N4" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="30">
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="42"/>
+      <c r="X4" s="7"/>
+    </row>
+    <row r="5" spans="1:24" ht="45.75">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="25">
         <v>18</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="25">
         <v>3</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-    </row>
-    <row r="6" spans="1:18" ht="60.75">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="30" t="s">
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="42"/>
+      <c r="T5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="60.75">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26">
+        <v>5000000</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="42"/>
+      <c r="X6" s="7"/>
+    </row>
+    <row r="7" spans="1:24" ht="167.25">
+      <c r="A7" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="33">
+        <v>24710000</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25">
+        <v>10000</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="42"/>
+      <c r="X7" s="7"/>
+    </row>
+    <row r="8" spans="1:24" ht="45.75">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6">
+        <v>3099660000</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="42"/>
+      <c r="X8" s="7"/>
+    </row>
+    <row r="9" spans="1:24" ht="45.75">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30">
+        <v>3900</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="42"/>
+      <c r="X9" s="7"/>
+    </row>
+    <row r="10" spans="1:24" ht="45.75">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30">
+        <v>33</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="42"/>
+      <c r="X10" s="7"/>
+    </row>
+    <row r="11" spans="1:24" ht="60.75">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="32">
-        <v>5000000</v>
-      </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-    </row>
-    <row r="7" spans="1:18" ht="167.25">
-      <c r="A7" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="39">
-        <v>24710000</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30">
-        <v>10000</v>
-      </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30" t="s">
+      <c r="F11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>200</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="42"/>
+      <c r="X11" s="7"/>
+    </row>
+    <row r="12" spans="1:24" ht="45.75">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>3</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S12" s="42"/>
+      <c r="T12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="U12" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-    </row>
-    <row r="8" spans="1:18" ht="60.75">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9">
-        <v>3099.66</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-    </row>
-    <row r="9" spans="1:18" ht="30.75">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36">
-        <v>3900</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-    </row>
-    <row r="10" spans="1:18" ht="45.75">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36">
-        <v>33</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-    </row>
-    <row r="11" spans="1:18" ht="60.75">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9">
-        <v>200</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-    </row>
-    <row r="12" spans="1:18" ht="45.75">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9">
-        <v>3</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1">
+      <c r="X12" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15" customHeight="1">
       <c r="F13" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R12" xr:uid="{089AD205-48EB-469D-82EB-DE69EC9A2D8D}">
-      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
-    </dataValidation>
+  <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q12" xr:uid="{44FA2649-C4F9-4A7D-AAF8-F950792400AA}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P12" xr:uid="{825F8FFF-C9FA-40C6-A453-619844F79483}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O12" xr:uid="{6505345E-2AA0-4959-9B08-D91EF543EC5F}">
-      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N12" xr:uid="{53624307-5C7A-4C02-92D0-A96A5BA83B50}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{88BB22EA-AE3E-46BB-9771-1F3C4836B939}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X12" xr:uid="{97CB1ED2-F3A0-4029-ABAE-0D5C39CDC903}">
+      <formula1>"Tier 1, Tier 2, Tier 3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O12" xr:uid="{724ED81B-AAFD-444A-884A-3CCE3D950237}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L12" xr:uid="{6AD71EB4-CBA1-40C5-80BA-8FE95838FFFC}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M12" xr:uid="{F81318C5-8609-465F-88BD-D1074658D377}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T12" xr:uid="{45223F72-D9D0-4245-822E-CC25D420F930}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R12" xr:uid="{75D1E81A-8D91-473D-A8B1-60A9C7CF3A53}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S12" xr:uid="{AEB69A0B-7363-4E44-BC23-A441CC76AD10}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9A631554-865A-47EE-870C-D3E295574B84}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E12</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1880,422 +2063,422 @@
   <cols>
     <col min="1" max="1" width="33.140625" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.95" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="6"/>
+      <c r="A1" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="46.5" customHeight="1">
-      <c r="A2" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
+      <c r="A2" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" ht="41.25" customHeight="1">
-      <c r="A3" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
+      <c r="A3" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" ht="46.5" customHeight="1">
-      <c r="A4" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
+      <c r="A4" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="46.5" customHeight="1">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="58.5" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="87" customHeight="1">
+      <c r="A7" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="54">
+        <v>0</v>
+      </c>
+      <c r="C7" s="57">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="54"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="60"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="59"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="53"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="72.95" customHeight="1">
+      <c r="A12" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="54">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="59"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="11">
+        <v>5</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1500</v>
+      </c>
+      <c r="E13" s="60"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="59"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="60"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A15" s="53"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="55"/>
+    </row>
+    <row r="16" spans="1:9" ht="117.95" customHeight="1">
+      <c r="A16" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="54">
+        <v>0</v>
+      </c>
+      <c r="C16" s="54">
+        <v>500</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="54"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="53"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="12">
+        <v>500</v>
+      </c>
+      <c r="E17" s="55"/>
+    </row>
+    <row r="18" spans="1:5" ht="72.95" customHeight="1">
+      <c r="A18" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="54">
+        <v>18</v>
+      </c>
+      <c r="C18" s="54">
+        <v>3</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="53"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="16">
+        <v>9000000</v>
+      </c>
+      <c r="E19" s="55"/>
+    </row>
+    <row r="20" spans="1:5" ht="132.94999999999999" customHeight="1">
+      <c r="A20" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="54">
+        <v>0</v>
+      </c>
+      <c r="C20" s="57">
+        <v>5000000</v>
+      </c>
+      <c r="D20" s="57">
+        <v>5000000</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="53"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="55"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A22" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A23" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A24" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75">
+      <c r="A25" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30.75">
+      <c r="A27" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="12">
+        <v>0</v>
+      </c>
+      <c r="C27" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" ht="45.75">
+      <c r="A28" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="12">
+        <v>0</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45.75">
+      <c r="A29" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" ht="58.5" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="B29" s="12">
+        <v>0</v>
+      </c>
+      <c r="C29" s="16">
+        <v>3900</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" ht="30.75">
+      <c r="A30" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B30" s="12">
+        <v>0</v>
+      </c>
+      <c r="C30" s="12">
+        <v>33</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" ht="45.75">
+      <c r="A31" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="B31" s="12">
+        <v>0</v>
+      </c>
+      <c r="C31" s="12">
+        <v>200</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" ht="30.75">
+      <c r="A32" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" ht="87" customHeight="1">
-      <c r="A7" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="51">
+      <c r="B32" s="12">
         <v>0</v>
       </c>
-      <c r="C7" s="54">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="56"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="50"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" ht="72.95" customHeight="1">
-      <c r="A12" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="51">
-        <v>0</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="56"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="14">
-        <v>5</v>
-      </c>
-      <c r="D13" s="16">
-        <v>1500</v>
-      </c>
-      <c r="E13" s="57"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="56"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="57"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.95" customHeight="1">
-      <c r="A15" s="50"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="52"/>
-    </row>
-    <row r="16" spans="1:9" ht="117.95" customHeight="1">
-      <c r="A16" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="51">
-        <v>0</v>
-      </c>
-      <c r="C16" s="51">
-        <v>500</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="51"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="50"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="15">
-        <v>500</v>
-      </c>
-      <c r="E17" s="52"/>
-    </row>
-    <row r="18" spans="1:5" ht="72.95" customHeight="1">
-      <c r="A18" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="51">
-        <v>18</v>
-      </c>
-      <c r="C18" s="51">
+      <c r="C32" s="12">
         <v>3</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="50"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="19">
-        <v>9000000</v>
-      </c>
-      <c r="E19" s="52"/>
-    </row>
-    <row r="20" spans="1:5" ht="132.94999999999999" customHeight="1">
-      <c r="A20" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="51">
-        <v>0</v>
-      </c>
-      <c r="C20" s="54">
-        <v>5000000</v>
-      </c>
-      <c r="D20" s="54">
-        <v>5000000</v>
-      </c>
-      <c r="E20" s="51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="50"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="52"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A22" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A23" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A24" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75">
-      <c r="A25" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30.75">
-      <c r="A27" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="15">
-        <v>0</v>
-      </c>
-      <c r="C27" s="19">
-        <v>10000</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="1:5" ht="45.75">
-      <c r="A28" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="15">
-        <v>0</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="45.75">
-      <c r="A29" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="15">
-        <v>0</v>
-      </c>
-      <c r="C29" s="19">
-        <v>3900</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="1:5" ht="30.75">
-      <c r="A30" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="15">
-        <v>0</v>
-      </c>
-      <c r="C30" s="15">
-        <v>33</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="1:5" ht="45.75">
-      <c r="A31" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="15">
-        <v>0</v>
-      </c>
-      <c r="C31" s="15">
-        <v>200</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="1:5" ht="30.75">
-      <c r="A32" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="15">
-        <v>0</v>
-      </c>
-      <c r="C32" s="15">
-        <v>3</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="15"/>
+      <c r="D32" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -2337,7 +2520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -2345,422 +2528,422 @@
   <cols>
     <col min="1" max="1" width="33.140625" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.95" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="6"/>
+      <c r="A1" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="46.5" customHeight="1">
-      <c r="A2" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
+      <c r="A2" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" ht="41.25" customHeight="1">
-      <c r="A3" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
+      <c r="A3" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" ht="46.5" customHeight="1">
-      <c r="A4" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
+      <c r="A4" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="58.5" customHeight="1" thickBot="1">
+      <c r="A6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="87" customHeight="1">
+      <c r="A7" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="54">
+        <v>0</v>
+      </c>
+      <c r="C7" s="57">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="54"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.95">
+      <c r="A8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="60"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="59"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="53"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="72.95" customHeight="1">
+      <c r="A12" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="54">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="59"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="11">
+        <v>5</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1500</v>
+      </c>
+      <c r="E13" s="60"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="59"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="60"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.95" customHeight="1">
+      <c r="A15" s="53"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="55"/>
+    </row>
+    <row r="16" spans="1:9" ht="117.95" customHeight="1">
+      <c r="A16" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="54">
+        <v>0</v>
+      </c>
+      <c r="C16" s="54">
+        <v>500</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="54"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.95" thickBot="1">
+      <c r="A17" s="53"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="12">
+        <v>500</v>
+      </c>
+      <c r="E17" s="55"/>
+    </row>
+    <row r="18" spans="1:5" ht="72.95" customHeight="1">
+      <c r="A18" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="54">
+        <v>18</v>
+      </c>
+      <c r="C18" s="54">
+        <v>3</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.95" thickBot="1">
+      <c r="A19" s="53"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="16">
+        <v>9000000</v>
+      </c>
+      <c r="E19" s="55"/>
+    </row>
+    <row r="20" spans="1:5" ht="132.94999999999999" customHeight="1">
+      <c r="A20" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="54">
+        <v>0</v>
+      </c>
+      <c r="C20" s="57">
+        <v>5000000</v>
+      </c>
+      <c r="D20" s="57">
+        <v>5000000</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.95" thickBot="1">
+      <c r="A21" s="53"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="55"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A22" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A23" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A24" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+    </row>
+    <row r="25" spans="1:5" ht="17.100000000000001" thickBot="1">
+      <c r="A25" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
+    </row>
+    <row r="26" spans="1:5" ht="33" thickBot="1">
+      <c r="A26" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="129" thickBot="1">
+      <c r="A27" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="12">
+        <v>0</v>
+      </c>
+      <c r="C27" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" ht="99" thickBot="1">
+      <c r="A28" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="12">
+        <v>0</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="81" thickBot="1">
+      <c r="A29" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A6" s="12" t="s">
+      <c r="B29" s="12">
+        <v>0</v>
+      </c>
+      <c r="C29" s="16">
+        <v>3900</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" ht="96.95" thickBot="1">
+      <c r="A30" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B30" s="12">
+        <v>0</v>
+      </c>
+      <c r="C30" s="12">
+        <v>33</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" ht="192.95" thickBot="1">
+      <c r="A31" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="B31" s="12">
+        <v>0</v>
+      </c>
+      <c r="C31" s="12">
+        <v>200</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" ht="65.099999999999994" thickBot="1">
+      <c r="A32" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" ht="87" customHeight="1">
-      <c r="A7" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="51">
+      <c r="B32" s="12">
         <v>0</v>
       </c>
-      <c r="C7" s="54">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.95">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="56"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="50"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" ht="72.95" customHeight="1">
-      <c r="A12" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="51">
-        <v>0</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="56"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="14">
-        <v>5</v>
-      </c>
-      <c r="D13" s="16">
-        <v>1500</v>
-      </c>
-      <c r="E13" s="57"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="56"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="57"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.95" customHeight="1">
-      <c r="A15" s="50"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="52"/>
-    </row>
-    <row r="16" spans="1:9" ht="117.95" customHeight="1">
-      <c r="A16" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="51">
-        <v>0</v>
-      </c>
-      <c r="C16" s="51">
-        <v>500</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="51"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.95" thickBot="1">
-      <c r="A17" s="50"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="15">
-        <v>500</v>
-      </c>
-      <c r="E17" s="52"/>
-    </row>
-    <row r="18" spans="1:5" ht="72.95" customHeight="1">
-      <c r="A18" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="51">
-        <v>18</v>
-      </c>
-      <c r="C18" s="51">
+      <c r="C32" s="12">
         <v>3</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.95" thickBot="1">
-      <c r="A19" s="50"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="19">
-        <v>9000000</v>
-      </c>
-      <c r="E19" s="52"/>
-    </row>
-    <row r="20" spans="1:5" ht="132.94999999999999" customHeight="1">
-      <c r="A20" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="51">
-        <v>0</v>
-      </c>
-      <c r="C20" s="54">
-        <v>5000000</v>
-      </c>
-      <c r="D20" s="54">
-        <v>5000000</v>
-      </c>
-      <c r="E20" s="51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.95" thickBot="1">
-      <c r="A21" s="50"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="52"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A22" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A23" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A24" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
-    </row>
-    <row r="25" spans="1:5" ht="17.100000000000001" thickBot="1">
-      <c r="A25" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
-    </row>
-    <row r="26" spans="1:5" ht="33" thickBot="1">
-      <c r="A26" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="129" thickBot="1">
-      <c r="A27" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="15">
-        <v>0</v>
-      </c>
-      <c r="C27" s="19">
-        <v>10000</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="1:5" ht="99" thickBot="1">
-      <c r="A28" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="15">
-        <v>0</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="81" thickBot="1">
-      <c r="A29" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="15">
-        <v>0</v>
-      </c>
-      <c r="C29" s="19">
-        <v>3900</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="1:5" ht="96.95" thickBot="1">
-      <c r="A30" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="15">
-        <v>0</v>
-      </c>
-      <c r="C30" s="15">
-        <v>33</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="1:5" ht="192.95" thickBot="1">
-      <c r="A31" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="15">
-        <v>0</v>
-      </c>
-      <c r="C31" s="15">
-        <v>200</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="1:5" ht="65.099999999999994" thickBot="1">
-      <c r="A32" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="15">
-        <v>0</v>
-      </c>
-      <c r="C32" s="15">
-        <v>3</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="15"/>
+      <c r="D32" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -2800,187 +2983,217 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="52.7109375" customWidth="1"/>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="59"/>
-      <c r="B3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="59"/>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="60"/>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="60"/>
-      <c r="B7" t="s">
+      <c r="B1" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B2" s="35" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="60"/>
-      <c r="B8" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B3" s="35" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="60"/>
-      <c r="B9" t="s">
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="62" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="61" t="s">
+      <c r="B5" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="62" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="61"/>
-      <c r="B11" t="s">
+      <c r="B7" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="62" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="B8" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45.75">
       <c r="A12" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="62"/>
-      <c r="B13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="62"/>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B12" s="35" t="s">
         <v>110</v>
       </c>
     </row>
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -3229,34 +3442,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{832529A9-6D1D-4F17-8F75-768844DC7245}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{797A231D-B310-4339-959B-B9F6D7181FB7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{797A231D-B310-4339-959B-B9F6D7181FB7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6053E160-FFD8-46AC-B61C-9D28EBC72471}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6053E160-FFD8-46AC-B61C-9D28EBC72471}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{832529A9-6D1D-4F17-8F75-768844DC7245}"/>
 </file>
--- a/01_Input/00_CO Validation/Kenya - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Kenya - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27417"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="8_{98A7AFD8-A93A-D34A-9879-81FC8C3B641F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{182F57EF-C12A-45A3-956D-26FF56B120BB}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="8_{98A7AFD8-A93A-D34A-9879-81FC8C3B641F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B54C520C-C45F-4396-AAEA-4F526140A24E}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="740" windowWidth="29160" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">MITIGATION FACILITY				</t>
   </si>
   <si>
-    <t>GHG Emission Reduction</t>
+    <t>GHG Emissions Reduction</t>
   </si>
   <si>
     <t>CO2 emission reduction from cold storage facilities tCO2</t>
@@ -1498,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1495D4-B028-4763-B195-010A1D63E803}">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1824,7 +1824,7 @@
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="6" t="s">
+      <c r="E8" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -3194,8 +3194,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -3220,6 +3220,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3299,6 +3300,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3451,5 +3457,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{832529A9-6D1D-4F17-8F75-768844DC7245}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3469E020-89A8-428B-9C72-F528B0B4D1E6}"/>
 </file>